--- a/rockstar-excel-expense-tracker.xlsx
+++ b/rockstar-excel-expense-tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SauceyClaps\GIT HUB Repositories\Excel-expense-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B72CAD-6A8E-46AD-8385-8FDD76B185B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46BD73A-6D88-410C-8702-7D48BC418291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BF67BA9-F6F7-4D1C-8C65-B0A5BC5E09C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BF67BA9-F6F7-4D1C-8C65-B0A5BC5E09C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Rockstar Excel Expense tracker</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Month-Year</t>
   </si>
 </sst>
 </file>
@@ -62,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,17 +401,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B013F0-1DBD-4055-9930-9ACFE5EC3305}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>MONTH(B3)&amp;"-"&amp;YEAR(B3)</f>
+        <v>1-2024</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:N2" si="0">MONTH(C3)&amp;"-"&amp;YEAR(C3)</f>
+        <v>2-2024</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2024</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2024</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2024</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>6-2024</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v>7-2024</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>8-2024</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>9-2024</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2024</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>11-2024</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" si="0"/>
+        <v>12-2024</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45343</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45372</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45403</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45433</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45464</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45494</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45525</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45556</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45586</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45617</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45647</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f>SUM(B5:M5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" ref="O6:O17" si="1">SUM(B6:M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>SUM(B7:M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B4:B16)</f>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:M17" si="2">SUM(C4:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B130D2-B3E8-4673-B625-B628B666DF19}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
